--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\criss\Documents\app\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts3plus\Documents\app-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDB8540E-AA15-4A56-9813-899228F4B28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF317C-7AD4-4FD8-B69C-FA145D9B19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{A08DC10A-80C6-4B80-A15E-E97074E73155}"/>
+    <workbookView xWindow="-3840" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A08DC10A-80C6-4B80-A15E-E97074E73155}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -98,10 +98,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -439,16 +438,16 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
     </row>

--- a/usuarios.xlsx
+++ b/usuarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ts3plus\Documents\app-1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDF317C-7AD4-4FD8-B69C-FA145D9B19C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8569863-C37A-4CF7-83F6-8D294E2B51DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3840" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{A08DC10A-80C6-4B80-A15E-E97074E73155}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{A08DC10A-80C6-4B80-A15E-E97074E73155}"/>
   </bookViews>
   <sheets>
     <sheet name="USERS" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>username</t>
   </si>
@@ -48,6 +48,15 @@
   </si>
   <si>
     <t>prueba</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>admin</t>
+  </si>
+  <si>
+    <t>validador</t>
   </si>
 </sst>
 </file>
@@ -71,7 +80,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -79,28 +88,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74F64845-8F26-4068-AB85-06A54CD9AEFA}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,6 +443,9 @@
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -458,6 +454,9 @@
       <c r="B2">
         <v>1193108338</v>
       </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -466,9 +465,9 @@
       <c r="B3">
         <v>123456789</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
